--- a/data/long_razon/P23_11-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_11-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-24,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 65,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 79,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,11; 45,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 60,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 28,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 41,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 11,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 113,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 33,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 81,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 9,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 70,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-47,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-72,62; -4,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 147,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 38,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 99,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 88,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-34,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -8,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 70,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 16,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 54,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,83; -3,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 48,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_11-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_11-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_11-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_11-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.2508637312417621</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1072266333126347</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.46752572435916</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>0.06214107983069923</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.01561325913982134</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.1739837053543989</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>-0.05340047393989556</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.03138876258631466</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.9314770811328965</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.7269576133479214</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5053008108880463</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.3137714729262857</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.413556205091446</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3283645932038575</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3759394585409274</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.4540241548872532</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.3464365704601313</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.1821949725500177</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.7862566417237693</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.7238098222834612</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.45420633063223</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.9375400231201156</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.6240254277906903</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.204315198311654</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>0.5349022693341723</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.3893317645661252</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>2.84880967894779</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.2798509629341366</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3571105535457136</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2400706739350752</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>0.04803922287851747</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.3028045751882821</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.01550437052300677</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>-0.1011456082214991</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3241735122087518</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.122375058957495</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.6074910677183305</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1420046561025466</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3885703470517053</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.2698553350675971</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.04124670165794622</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2675445423411119</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>-0.3380869202551255</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.03221217246003107</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2322064808185372</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.1625704745004959</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.347205067729177</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.105236368863187</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>0.4718504428264888</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.7732537810415786</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.4082419595625084</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.200122957652454</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.7160878173144163</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.5174335742740724</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3895414372800249</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.4684806682091281</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.9307391782183998</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>-0.09233380142458264</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.4418384534929894</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.06804075837838197</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>-0.214991673775189</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4519147724199145</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.2286979244884597</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6964606364701459</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2102499538369909</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1011264688673067</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.3957142310772455</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.04201045716143969</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3488462092972676</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.4409462348690663</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.06678808633024125</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.07704446904677656</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1339135235093958</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.530847994322226</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.177369210591333</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.4097716519205812</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.014043674258363</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.3030796976259545</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.08920173804842692</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.9423915000181941</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.7922134944102371</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.3099183059661805</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2700608897717075</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7798429087299177</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>0.004164380072382256</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2694473668345748</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.01720838965541397</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>-0.1301106149624159</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2696842970974797</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.3136086949616975</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5265140085545829</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.06888973728487581</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.115164942839957</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>-0.1877915958468851</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.04780101996449217</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1942975361766539</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>-0.293565070202893</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.07962292011218058</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.06179956439776013</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.001750898944704891</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.74358424853185</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.685194226853017</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.2955954921562463</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5880295272325649</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2773996553372414</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.08539706922153296</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.5572254137419281</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.7045022643117478</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
